--- a/00-仕様書/機能仕様書.xlsx
+++ b/00-仕様書/機能仕様書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LSI\Documents\project\Android_study\kanji_decompose\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LSI\Documents\GitHub\kanji-decomposition\00-仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,8 +23,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>LSI</author>
+  </authors>
+  <commentList>
+    <comment ref="CC40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>LSI:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+1:高
+２：中
+３：低</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>L</t>
     <phoneticPr fontId="1"/>
@@ -244,31 +282,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表示すべき文字は表示する領域を超えた場合は、スクロールを表示して、</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>リョウイキ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スクロールができること。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -287,16 +300,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>期待する機能</t>
-    <rPh sb="0" eb="2">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オンラインアカウントで記憶出来る様</t>
     <rPh sb="11" eb="13">
       <t>キオク</t>
@@ -323,89 +326,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>他のアップから情報を受けると分析する事が可能(Android Share機能等で）</t>
-    <rPh sb="0" eb="1">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ナド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>④</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>③部、④部に有る各漢字をタッチすると、その漢字を①部に入れて、</t>
-    <rPh sb="0" eb="2">
-      <t>3ブ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>4ブ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>1ブ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>検索動作を行うこと</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示する文字が指定される部を超えるとき、縦スクロールバーを</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>タテ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -417,6 +342,302 @@
   </si>
   <si>
     <t>⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①部に他文字を入れることが出来、一つずつ漢字を検索出来る</t>
+    <rPh sb="0" eb="2">
+      <t>1ブ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>タモジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ブラウザらしい機能)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②部に表示する漢字をcopy操作出来る</t>
+    <rPh sb="0" eb="2">
+      <t>2ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＊</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高度</t>
+    <rPh sb="0" eb="2">
+      <t>コウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他のアップから情報を受けると分析する事が可能</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（Share機能等で）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢字分析データベースは、kradfileからsqliteデータベース形式でデータを入れし、</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションの中でそのデータベースを利用する。</t>
+    <rPh sb="9" eb="10">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待させる機能</t>
+    <rPh sb="0" eb="2">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>③部、④部に有る各漢字を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タッチ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>すると、その漢字を①部に入れて、</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>3ブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>4ブ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>1ブ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>表示する文字が指定される部を超えるとき、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>縦スクロールバー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢字のUnicode値をSQLiteテーブルのrowid KEYとして保存する</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>表示すべき文字は表示する領域を超えた場合は、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>スクロール</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を表示して、</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -424,7 +645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +702,43 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -508,7 +766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -676,13 +934,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,9 +1096,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -787,6 +1118,60 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,16 +1452,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F5:CB60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F5:DH71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AM51" sqref="AM51"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BN54" sqref="BN54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="76" width="2.6640625" style="1"/>
+    <col min="77" max="77" width="4.6640625" style="1" customWidth="1"/>
+    <col min="78" max="78" width="2.6640625" style="1"/>
+    <col min="79" max="79" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="7:62" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1203,10 +1592,10 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="13"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="31" t="s">
+      <c r="AD8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="AE8" s="32"/>
+      <c r="AE8" s="31"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
@@ -1237,10 +1626,10 @@
       <c r="BE8" s="12"/>
       <c r="BF8" s="13"/>
       <c r="BG8" s="6"/>
-      <c r="BH8" s="31" t="s">
+      <c r="BH8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="BI8" s="32"/>
+      <c r="BI8" s="31"/>
       <c r="BJ8" s="7"/>
     </row>
     <row r="9" spans="7:62" x14ac:dyDescent="0.2">
@@ -1267,8 +1656,8 @@
       <c r="AA9" s="15"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="34"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="33"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
@@ -1297,8 +1686,8 @@
       <c r="BE9" s="15"/>
       <c r="BF9" s="16"/>
       <c r="BG9" s="6"/>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="34"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="33"/>
       <c r="BJ9" s="7"/>
     </row>
     <row r="10" spans="7:62" x14ac:dyDescent="0.2">
@@ -2668,7 +3057,7 @@
       <c r="BI32" s="22"/>
       <c r="BJ32" s="7"/>
     </row>
-    <row r="33" spans="6:80" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:112" x14ac:dyDescent="0.2">
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -2726,7 +3115,7 @@
       <c r="BI33" s="21"/>
       <c r="BJ33" s="7"/>
     </row>
-    <row r="34" spans="6:80" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:112" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -2784,7 +3173,7 @@
       <c r="BI34" s="9"/>
       <c r="BJ34" s="10"/>
     </row>
-    <row r="35" spans="6:80" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:112" x14ac:dyDescent="0.2">
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -2820,7 +3209,7 @@
       <c r="AM35" s="6"/>
       <c r="AN35" s="6"/>
     </row>
-    <row r="36" spans="6:80" ht="28.2" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:112" ht="28.2" x14ac:dyDescent="0.2">
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -2859,7 +3248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="6:80" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:112" x14ac:dyDescent="0.2">
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -2895,7 +3284,7 @@
       <c r="AM37" s="6"/>
       <c r="AN37" s="6"/>
     </row>
-    <row r="38" spans="6:80" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:112" x14ac:dyDescent="0.2">
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -2931,9 +3320,9 @@
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
     </row>
-    <row r="39" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="F39" s="29" t="s">
-        <v>24</v>
+    <row r="39" spans="6:112" ht="19.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -2965,16 +3354,16 @@
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
       <c r="AK39" s="6"/>
-      <c r="AL39" s="30" t="s">
-        <v>23</v>
+      <c r="AL39" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="AM39" s="6"/>
       <c r="AN39" s="6"/>
-      <c r="CA39" s="29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="CC39" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="6:112" ht="19.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G40" s="26" t="s">
         <v>3</v>
       </c>
@@ -3012,14 +3401,84 @@
       <c r="AM40" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AN40" s="25" t="s">
+      <c r="AN40" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="CB40" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AO40" s="12"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="12"/>
+      <c r="AX40" s="12"/>
+      <c r="AY40" s="12"/>
+      <c r="AZ40" s="12"/>
+      <c r="BA40" s="12"/>
+      <c r="BB40" s="12"/>
+      <c r="BC40" s="12"/>
+      <c r="BD40" s="12"/>
+      <c r="BE40" s="12"/>
+      <c r="BF40" s="12"/>
+      <c r="BG40" s="12"/>
+      <c r="BH40" s="12"/>
+      <c r="BI40" s="12"/>
+      <c r="BJ40" s="12"/>
+      <c r="BK40" s="12"/>
+      <c r="BL40" s="12"/>
+      <c r="BM40" s="12"/>
+      <c r="BN40" s="12"/>
+      <c r="BO40" s="12"/>
+      <c r="BP40" s="12"/>
+      <c r="BQ40" s="12"/>
+      <c r="BR40" s="12"/>
+      <c r="BS40" s="12"/>
+      <c r="BT40" s="12"/>
+      <c r="BU40" s="12"/>
+      <c r="BV40" s="12"/>
+      <c r="BW40" s="12"/>
+      <c r="BX40" s="12"/>
+      <c r="BY40" s="13"/>
+      <c r="CC40" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD40" s="44"/>
+      <c r="CE40" s="44"/>
+      <c r="CF40" s="44"/>
+      <c r="CG40" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH40" s="44"/>
+      <c r="CI40" s="44"/>
+      <c r="CJ40" s="44"/>
+      <c r="CK40" s="44"/>
+      <c r="CL40" s="44"/>
+      <c r="CM40" s="44"/>
+      <c r="CN40" s="44"/>
+      <c r="CO40" s="44"/>
+      <c r="CP40" s="44"/>
+      <c r="CQ40" s="44"/>
+      <c r="CR40" s="44"/>
+      <c r="CS40" s="44"/>
+      <c r="CT40" s="44"/>
+      <c r="CU40" s="44"/>
+      <c r="CV40" s="44"/>
+      <c r="CW40" s="44"/>
+      <c r="CX40" s="44"/>
+      <c r="CY40" s="44"/>
+      <c r="CZ40" s="44"/>
+      <c r="DA40" s="44"/>
+      <c r="DB40" s="44"/>
+      <c r="DC40" s="44"/>
+      <c r="DD40" s="44"/>
+      <c r="DE40" s="44"/>
+      <c r="DF40" s="44"/>
+      <c r="DG40" s="44"/>
+      <c r="DH40" s="43"/>
+    </row>
+    <row r="41" spans="6:112" ht="19.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G41" s="26" t="s">
         <v>4</v>
       </c>
@@ -3055,14 +3514,57 @@
       <c r="AK41" s="6"/>
       <c r="AL41" s="6"/>
       <c r="AM41" s="6"/>
-      <c r="AN41" s="27" t="s">
+      <c r="AN41" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="CB41" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AO41" s="15"/>
+      <c r="AP41" s="15"/>
+      <c r="AQ41" s="15"/>
+      <c r="AR41" s="15"/>
+      <c r="AS41" s="15"/>
+      <c r="AT41" s="15"/>
+      <c r="AU41" s="15"/>
+      <c r="AV41" s="15"/>
+      <c r="AW41" s="15"/>
+      <c r="AX41" s="15"/>
+      <c r="AY41" s="15"/>
+      <c r="AZ41" s="15"/>
+      <c r="BA41" s="15"/>
+      <c r="BB41" s="15"/>
+      <c r="BC41" s="15"/>
+      <c r="BD41" s="15"/>
+      <c r="BE41" s="15"/>
+      <c r="BF41" s="15"/>
+      <c r="BG41" s="15"/>
+      <c r="BH41" s="15"/>
+      <c r="BI41" s="15"/>
+      <c r="BJ41" s="15"/>
+      <c r="BK41" s="15"/>
+      <c r="BL41" s="15"/>
+      <c r="BM41" s="15"/>
+      <c r="BN41" s="15"/>
+      <c r="BO41" s="15"/>
+      <c r="BP41" s="15"/>
+      <c r="BQ41" s="15"/>
+      <c r="BR41" s="15"/>
+      <c r="BS41" s="15"/>
+      <c r="BT41" s="15"/>
+      <c r="BU41" s="15"/>
+      <c r="BV41" s="15"/>
+      <c r="BW41" s="15"/>
+      <c r="BX41" s="15"/>
+      <c r="BY41" s="16"/>
+      <c r="CB41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CC41" s="37">
+        <v>1</v>
+      </c>
+      <c r="CD41" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="6:112" ht="19.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G42" s="26" t="s">
         <v>9</v>
       </c>
@@ -3100,14 +3602,87 @@
       <c r="AM42" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AN42" s="27" t="s">
+      <c r="AN42" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="CB42" s="28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AO42" s="12"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="12"/>
+      <c r="AS42" s="12"/>
+      <c r="AT42" s="12"/>
+      <c r="AU42" s="12"/>
+      <c r="AV42" s="12"/>
+      <c r="AW42" s="12"/>
+      <c r="AX42" s="12"/>
+      <c r="AY42" s="12"/>
+      <c r="AZ42" s="12"/>
+      <c r="BA42" s="12"/>
+      <c r="BB42" s="12"/>
+      <c r="BC42" s="12"/>
+      <c r="BD42" s="12"/>
+      <c r="BE42" s="12"/>
+      <c r="BF42" s="12"/>
+      <c r="BG42" s="12"/>
+      <c r="BH42" s="12"/>
+      <c r="BI42" s="12"/>
+      <c r="BJ42" s="12"/>
+      <c r="BK42" s="12"/>
+      <c r="BL42" s="12"/>
+      <c r="BM42" s="12"/>
+      <c r="BN42" s="12"/>
+      <c r="BO42" s="12"/>
+      <c r="BP42" s="12"/>
+      <c r="BQ42" s="12"/>
+      <c r="BR42" s="12"/>
+      <c r="BS42" s="12"/>
+      <c r="BT42" s="12"/>
+      <c r="BU42" s="12"/>
+      <c r="BV42" s="12"/>
+      <c r="BW42" s="12"/>
+      <c r="BX42" s="12"/>
+      <c r="BY42" s="13"/>
+      <c r="CB42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CC42" s="36">
+        <v>3</v>
+      </c>
+      <c r="CD42" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="CE42" s="34"/>
+      <c r="CF42" s="34"/>
+      <c r="CG42" s="34"/>
+      <c r="CH42" s="34"/>
+      <c r="CI42" s="34"/>
+      <c r="CJ42" s="34"/>
+      <c r="CK42" s="34"/>
+      <c r="CL42" s="34"/>
+      <c r="CM42" s="34"/>
+      <c r="CN42" s="34"/>
+      <c r="CO42" s="34"/>
+      <c r="CP42" s="34"/>
+      <c r="CQ42" s="34"/>
+      <c r="CR42" s="34"/>
+      <c r="CS42" s="34"/>
+      <c r="CT42" s="34"/>
+      <c r="CU42" s="34"/>
+      <c r="CV42" s="34"/>
+      <c r="CW42" s="34"/>
+      <c r="CX42" s="34"/>
+      <c r="CY42" s="34"/>
+      <c r="CZ42" s="34"/>
+      <c r="DA42" s="34"/>
+      <c r="DB42" s="34"/>
+      <c r="DC42" s="34"/>
+      <c r="DD42" s="34"/>
+      <c r="DE42" s="34"/>
+      <c r="DF42" s="34"/>
+      <c r="DG42" s="34"/>
+      <c r="DH42" s="35"/>
+    </row>
+    <row r="43" spans="6:112" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G43" s="26" t="s">
         <v>10</v>
       </c>
@@ -3143,12 +3718,57 @@
       <c r="AK43" s="6"/>
       <c r="AL43" s="6"/>
       <c r="AM43" s="6"/>
-      <c r="AN43" s="27" t="s">
+      <c r="AN43" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="CB43" s="28"/>
-    </row>
-    <row r="44" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AO43" s="6"/>
+      <c r="AP43" s="6"/>
+      <c r="AQ43" s="6"/>
+      <c r="AR43" s="6"/>
+      <c r="AS43" s="6"/>
+      <c r="AT43" s="6"/>
+      <c r="AU43" s="6"/>
+      <c r="AV43" s="6"/>
+      <c r="AW43" s="6"/>
+      <c r="AX43" s="6"/>
+      <c r="AY43" s="6"/>
+      <c r="AZ43" s="6"/>
+      <c r="BA43" s="6"/>
+      <c r="BB43" s="6"/>
+      <c r="BC43" s="6"/>
+      <c r="BD43" s="6"/>
+      <c r="BE43" s="6"/>
+      <c r="BF43" s="6"/>
+      <c r="BG43" s="6"/>
+      <c r="BH43" s="6"/>
+      <c r="BI43" s="6"/>
+      <c r="BJ43" s="6"/>
+      <c r="BK43" s="6"/>
+      <c r="BL43" s="6"/>
+      <c r="BM43" s="6"/>
+      <c r="BN43" s="6"/>
+      <c r="BO43" s="6"/>
+      <c r="BP43" s="6"/>
+      <c r="BQ43" s="6"/>
+      <c r="BR43" s="6"/>
+      <c r="BS43" s="6"/>
+      <c r="BT43" s="6"/>
+      <c r="BU43" s="6"/>
+      <c r="BV43" s="6"/>
+      <c r="BW43" s="6"/>
+      <c r="BX43" s="6"/>
+      <c r="BY43" s="18"/>
+      <c r="CB43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CC43" s="37">
+        <v>3</v>
+      </c>
+      <c r="CD43" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="6:112" ht="19.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G44" s="26" t="s">
         <v>11</v>
       </c>
@@ -3184,12 +3804,52 @@
       <c r="AK44" s="6"/>
       <c r="AL44" s="6"/>
       <c r="AM44" s="6"/>
-      <c r="AN44" s="25" t="s">
+      <c r="AN44" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="CB44" s="28"/>
-    </row>
-    <row r="45" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AO44" s="6"/>
+      <c r="AP44" s="6"/>
+      <c r="AQ44" s="6"/>
+      <c r="AR44" s="6"/>
+      <c r="AS44" s="6"/>
+      <c r="AT44" s="6"/>
+      <c r="AU44" s="6"/>
+      <c r="AV44" s="6"/>
+      <c r="AW44" s="6"/>
+      <c r="AX44" s="6"/>
+      <c r="AY44" s="6"/>
+      <c r="AZ44" s="6"/>
+      <c r="BA44" s="6"/>
+      <c r="BB44" s="6"/>
+      <c r="BC44" s="6"/>
+      <c r="BD44" s="6"/>
+      <c r="BE44" s="6"/>
+      <c r="BF44" s="6"/>
+      <c r="BG44" s="6"/>
+      <c r="BH44" s="6"/>
+      <c r="BI44" s="6"/>
+      <c r="BJ44" s="6"/>
+      <c r="BK44" s="6"/>
+      <c r="BL44" s="6"/>
+      <c r="BM44" s="6"/>
+      <c r="BN44" s="6"/>
+      <c r="BO44" s="6"/>
+      <c r="BP44" s="6"/>
+      <c r="BQ44" s="6"/>
+      <c r="BR44" s="6"/>
+      <c r="BS44" s="6"/>
+      <c r="BT44" s="6"/>
+      <c r="BU44" s="6"/>
+      <c r="BV44" s="6"/>
+      <c r="BW44" s="6"/>
+      <c r="BX44" s="6"/>
+      <c r="BY44" s="18"/>
+      <c r="CC44" s="37"/>
+      <c r="CD44" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="6:112" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G45" s="26" t="s">
         <v>12</v>
       </c>
@@ -3225,12 +3885,87 @@
       <c r="AK45" s="6"/>
       <c r="AL45" s="6"/>
       <c r="AM45" s="6"/>
-      <c r="AN45" s="27" t="s">
+      <c r="AN45" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="CB45" s="28"/>
-    </row>
-    <row r="46" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AO45" s="15"/>
+      <c r="AP45" s="15"/>
+      <c r="AQ45" s="15"/>
+      <c r="AR45" s="15"/>
+      <c r="AS45" s="15"/>
+      <c r="AT45" s="15"/>
+      <c r="AU45" s="15"/>
+      <c r="AV45" s="15"/>
+      <c r="AW45" s="15"/>
+      <c r="AX45" s="15"/>
+      <c r="AY45" s="15"/>
+      <c r="AZ45" s="15"/>
+      <c r="BA45" s="15"/>
+      <c r="BB45" s="15"/>
+      <c r="BC45" s="15"/>
+      <c r="BD45" s="15"/>
+      <c r="BE45" s="15"/>
+      <c r="BF45" s="15"/>
+      <c r="BG45" s="15"/>
+      <c r="BH45" s="15"/>
+      <c r="BI45" s="15"/>
+      <c r="BJ45" s="15"/>
+      <c r="BK45" s="15"/>
+      <c r="BL45" s="15"/>
+      <c r="BM45" s="15"/>
+      <c r="BN45" s="15"/>
+      <c r="BO45" s="15"/>
+      <c r="BP45" s="15"/>
+      <c r="BQ45" s="15"/>
+      <c r="BR45" s="15"/>
+      <c r="BS45" s="15"/>
+      <c r="BT45" s="15"/>
+      <c r="BU45" s="15"/>
+      <c r="BV45" s="15"/>
+      <c r="BW45" s="15"/>
+      <c r="BX45" s="15"/>
+      <c r="BY45" s="16"/>
+      <c r="CB45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CC45" s="40">
+        <v>3</v>
+      </c>
+      <c r="CD45" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="CE45" s="3"/>
+      <c r="CF45" s="3"/>
+      <c r="CG45" s="3"/>
+      <c r="CH45" s="3"/>
+      <c r="CI45" s="3"/>
+      <c r="CJ45" s="3"/>
+      <c r="CK45" s="3"/>
+      <c r="CL45" s="3"/>
+      <c r="CM45" s="3"/>
+      <c r="CN45" s="3"/>
+      <c r="CO45" s="3"/>
+      <c r="CP45" s="3"/>
+      <c r="CQ45" s="3"/>
+      <c r="CR45" s="3"/>
+      <c r="CS45" s="3"/>
+      <c r="CT45" s="3"/>
+      <c r="CU45" s="3"/>
+      <c r="CV45" s="3"/>
+      <c r="CW45" s="3"/>
+      <c r="CX45" s="3"/>
+      <c r="CY45" s="3"/>
+      <c r="CZ45" s="3"/>
+      <c r="DA45" s="3"/>
+      <c r="DB45" s="3"/>
+      <c r="DC45" s="3"/>
+      <c r="DD45" s="3"/>
+      <c r="DE45" s="3"/>
+      <c r="DF45" s="3"/>
+      <c r="DG45" s="3"/>
+      <c r="DH45" s="4"/>
+    </row>
+    <row r="46" spans="6:112" ht="19.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G46" s="26"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -3266,77 +4001,538 @@
       <c r="AM46" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AN46" s="26" t="s">
+      <c r="AN46" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO46" s="12"/>
+      <c r="AP46" s="12"/>
+      <c r="AQ46" s="12"/>
+      <c r="AR46" s="12"/>
+      <c r="AS46" s="12"/>
+      <c r="AT46" s="12"/>
+      <c r="AU46" s="12"/>
+      <c r="AV46" s="12"/>
+      <c r="AW46" s="12"/>
+      <c r="AX46" s="12"/>
+      <c r="AY46" s="12"/>
+      <c r="AZ46" s="12"/>
+      <c r="BA46" s="12"/>
+      <c r="BB46" s="12"/>
+      <c r="BC46" s="12"/>
+      <c r="BD46" s="12"/>
+      <c r="BE46" s="12"/>
+      <c r="BF46" s="12"/>
+      <c r="BG46" s="12"/>
+      <c r="BH46" s="12"/>
+      <c r="BI46" s="12"/>
+      <c r="BJ46" s="12"/>
+      <c r="BK46" s="12"/>
+      <c r="BL46" s="12"/>
+      <c r="BM46" s="12"/>
+      <c r="BN46" s="12"/>
+      <c r="BO46" s="12"/>
+      <c r="BP46" s="12"/>
+      <c r="BQ46" s="12"/>
+      <c r="BR46" s="12"/>
+      <c r="BS46" s="12"/>
+      <c r="BT46" s="12"/>
+      <c r="BU46" s="12"/>
+      <c r="BV46" s="12"/>
+      <c r="BW46" s="12"/>
+      <c r="BX46" s="12"/>
+      <c r="BY46" s="13"/>
+      <c r="CC46" s="38"/>
+      <c r="CD46" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE46" s="9"/>
+      <c r="CF46" s="9"/>
+      <c r="CG46" s="9"/>
+      <c r="CH46" s="9"/>
+      <c r="CI46" s="9"/>
+      <c r="CJ46" s="9"/>
+      <c r="CK46" s="9"/>
+      <c r="CL46" s="9"/>
+      <c r="CM46" s="9"/>
+      <c r="CN46" s="9"/>
+      <c r="CO46" s="9"/>
+      <c r="CP46" s="9"/>
+      <c r="CQ46" s="9"/>
+      <c r="CR46" s="9"/>
+      <c r="CS46" s="9"/>
+      <c r="CT46" s="9"/>
+      <c r="CU46" s="9"/>
+      <c r="CV46" s="9"/>
+      <c r="CW46" s="9"/>
+      <c r="CX46" s="9"/>
+      <c r="CY46" s="9"/>
+      <c r="CZ46" s="9"/>
+      <c r="DA46" s="9"/>
+      <c r="DB46" s="9"/>
+      <c r="DC46" s="9"/>
+      <c r="DD46" s="9"/>
+      <c r="DE46" s="9"/>
+      <c r="DF46" s="9"/>
+      <c r="DG46" s="9"/>
+      <c r="DH46" s="10"/>
+    </row>
+    <row r="47" spans="6:112" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="G47" s="25"/>
+      <c r="AN47" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="CB46" s="28"/>
-    </row>
-    <row r="47" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="G47" s="25"/>
-      <c r="AN47" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="CB47" s="28"/>
-    </row>
-    <row r="48" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AO47" s="6"/>
+      <c r="AP47" s="6"/>
+      <c r="AQ47" s="6"/>
+      <c r="AR47" s="6"/>
+      <c r="AS47" s="6"/>
+      <c r="AT47" s="6"/>
+      <c r="AU47" s="6"/>
+      <c r="AV47" s="6"/>
+      <c r="AW47" s="6"/>
+      <c r="AX47" s="6"/>
+      <c r="AY47" s="6"/>
+      <c r="AZ47" s="6"/>
+      <c r="BA47" s="6"/>
+      <c r="BB47" s="6"/>
+      <c r="BC47" s="6"/>
+      <c r="BD47" s="6"/>
+      <c r="BE47" s="6"/>
+      <c r="BF47" s="6"/>
+      <c r="BG47" s="6"/>
+      <c r="BH47" s="6"/>
+      <c r="BI47" s="6"/>
+      <c r="BJ47" s="6"/>
+      <c r="BK47" s="6"/>
+      <c r="BL47" s="6"/>
+      <c r="BM47" s="6"/>
+      <c r="BN47" s="6"/>
+      <c r="BO47" s="6"/>
+      <c r="BP47" s="6"/>
+      <c r="BQ47" s="6"/>
+      <c r="BR47" s="6"/>
+      <c r="BS47" s="6"/>
+      <c r="BT47" s="6"/>
+      <c r="BU47" s="6"/>
+      <c r="BV47" s="6"/>
+      <c r="BW47" s="6"/>
+      <c r="BX47" s="6"/>
+      <c r="BY47" s="18"/>
+      <c r="CB47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="CC47" s="37">
+        <v>1</v>
+      </c>
+      <c r="CD47" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="6:112" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G48" s="25"/>
-      <c r="AM48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN48" s="28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="7:40" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN48" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO48" s="6"/>
+      <c r="AP48" s="6"/>
+      <c r="AQ48" s="6"/>
+      <c r="AR48" s="6"/>
+      <c r="AS48" s="6"/>
+      <c r="AT48" s="6"/>
+      <c r="AU48" s="6"/>
+      <c r="AV48" s="6"/>
+      <c r="AW48" s="6"/>
+      <c r="AX48" s="6"/>
+      <c r="AY48" s="6"/>
+      <c r="AZ48" s="6"/>
+      <c r="BA48" s="6"/>
+      <c r="BB48" s="6"/>
+      <c r="BC48" s="6"/>
+      <c r="BD48" s="6"/>
+      <c r="BE48" s="6"/>
+      <c r="BF48" s="6"/>
+      <c r="BG48" s="6"/>
+      <c r="BH48" s="6"/>
+      <c r="BI48" s="6"/>
+      <c r="BJ48" s="6"/>
+      <c r="BK48" s="6"/>
+      <c r="BL48" s="6"/>
+      <c r="BM48" s="6"/>
+      <c r="BN48" s="6"/>
+      <c r="BO48" s="6"/>
+      <c r="BP48" s="6"/>
+      <c r="BQ48" s="6"/>
+      <c r="BR48" s="6"/>
+      <c r="BS48" s="6"/>
+      <c r="BT48" s="6"/>
+      <c r="BU48" s="6"/>
+      <c r="BV48" s="6"/>
+      <c r="BW48" s="6"/>
+      <c r="BX48" s="6"/>
+      <c r="BY48" s="18"/>
+      <c r="CC48" s="37"/>
+      <c r="CD48" s="27"/>
+    </row>
+    <row r="49" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G49" s="25"/>
-      <c r="AN49" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="7:40" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AM49" s="6"/>
+      <c r="AN49" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO49" s="15"/>
+      <c r="AP49" s="15"/>
+      <c r="AQ49" s="15"/>
+      <c r="AR49" s="15"/>
+      <c r="AS49" s="15"/>
+      <c r="AT49" s="15"/>
+      <c r="AU49" s="15"/>
+      <c r="AV49" s="15"/>
+      <c r="AW49" s="15"/>
+      <c r="AX49" s="15"/>
+      <c r="AY49" s="15"/>
+      <c r="AZ49" s="15"/>
+      <c r="BA49" s="15"/>
+      <c r="BB49" s="15"/>
+      <c r="BC49" s="15"/>
+      <c r="BD49" s="15"/>
+      <c r="BE49" s="15"/>
+      <c r="BF49" s="15"/>
+      <c r="BG49" s="15"/>
+      <c r="BH49" s="15"/>
+      <c r="BI49" s="15"/>
+      <c r="BJ49" s="15"/>
+      <c r="BK49" s="15"/>
+      <c r="BL49" s="15"/>
+      <c r="BM49" s="15"/>
+      <c r="BN49" s="15"/>
+      <c r="BO49" s="15"/>
+      <c r="BP49" s="15"/>
+      <c r="BQ49" s="15"/>
+      <c r="BR49" s="15"/>
+      <c r="BS49" s="15"/>
+      <c r="BT49" s="15"/>
+      <c r="BU49" s="15"/>
+      <c r="BV49" s="15"/>
+      <c r="BW49" s="15"/>
+      <c r="BX49" s="15"/>
+      <c r="BY49" s="16"/>
+      <c r="CC49" s="37"/>
+    </row>
+    <row r="50" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G50" s="25"/>
       <c r="AM50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN50" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="7:40" ht="19.2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="AN50" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO50" s="12"/>
+      <c r="AP50" s="12"/>
+      <c r="AQ50" s="12"/>
+      <c r="AR50" s="12"/>
+      <c r="AS50" s="12"/>
+      <c r="AT50" s="12"/>
+      <c r="AU50" s="12"/>
+      <c r="AV50" s="12"/>
+      <c r="AW50" s="12"/>
+      <c r="AX50" s="12"/>
+      <c r="AY50" s="12"/>
+      <c r="AZ50" s="12"/>
+      <c r="BA50" s="12"/>
+      <c r="BB50" s="12"/>
+      <c r="BC50" s="12"/>
+      <c r="BD50" s="12"/>
+      <c r="BE50" s="12"/>
+      <c r="BF50" s="12"/>
+      <c r="BG50" s="12"/>
+      <c r="BH50" s="12"/>
+      <c r="BI50" s="12"/>
+      <c r="BJ50" s="12"/>
+      <c r="BK50" s="12"/>
+      <c r="BL50" s="12"/>
+      <c r="BM50" s="12"/>
+      <c r="BN50" s="12"/>
+      <c r="BO50" s="12"/>
+      <c r="BP50" s="12"/>
+      <c r="BQ50" s="12"/>
+      <c r="BR50" s="12"/>
+      <c r="BS50" s="12"/>
+      <c r="BT50" s="12"/>
+      <c r="BU50" s="12"/>
+      <c r="BV50" s="12"/>
+      <c r="BW50" s="12"/>
+      <c r="BX50" s="12"/>
+      <c r="BY50" s="13"/>
+      <c r="CC50" s="37"/>
+    </row>
+    <row r="51" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G51" s="25"/>
-      <c r="AN51" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="7:40" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN51" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO51" s="15"/>
+      <c r="AP51" s="15"/>
+      <c r="AQ51" s="15"/>
+      <c r="AR51" s="15"/>
+      <c r="AS51" s="15"/>
+      <c r="AT51" s="15"/>
+      <c r="AU51" s="15"/>
+      <c r="AV51" s="15"/>
+      <c r="AW51" s="15"/>
+      <c r="AX51" s="15"/>
+      <c r="AY51" s="15"/>
+      <c r="AZ51" s="15"/>
+      <c r="BA51" s="15"/>
+      <c r="BB51" s="15"/>
+      <c r="BC51" s="15"/>
+      <c r="BD51" s="15"/>
+      <c r="BE51" s="15"/>
+      <c r="BF51" s="15"/>
+      <c r="BG51" s="15"/>
+      <c r="BH51" s="15"/>
+      <c r="BI51" s="15"/>
+      <c r="BJ51" s="15"/>
+      <c r="BK51" s="15"/>
+      <c r="BL51" s="15"/>
+      <c r="BM51" s="15"/>
+      <c r="BN51" s="15"/>
+      <c r="BO51" s="15"/>
+      <c r="BP51" s="15"/>
+      <c r="BQ51" s="15"/>
+      <c r="BR51" s="15"/>
+      <c r="BS51" s="15"/>
+      <c r="BT51" s="15"/>
+      <c r="BU51" s="15"/>
+      <c r="BV51" s="15"/>
+      <c r="BW51" s="15"/>
+      <c r="BX51" s="15"/>
+      <c r="BY51" s="16"/>
+      <c r="CC51" s="37"/>
+    </row>
+    <row r="52" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G52" s="25"/>
-      <c r="AN52" s="28"/>
-    </row>
-    <row r="53" spans="7:40" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AM52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN52" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO52" s="12"/>
+      <c r="AP52" s="12"/>
+      <c r="AQ52" s="12"/>
+      <c r="AR52" s="12"/>
+      <c r="AS52" s="12"/>
+      <c r="AT52" s="12"/>
+      <c r="AU52" s="12"/>
+      <c r="AV52" s="12"/>
+      <c r="AW52" s="12"/>
+      <c r="AX52" s="12"/>
+      <c r="AY52" s="12"/>
+      <c r="AZ52" s="12"/>
+      <c r="BA52" s="12"/>
+      <c r="BB52" s="12"/>
+      <c r="BC52" s="12"/>
+      <c r="BD52" s="12"/>
+      <c r="BE52" s="12"/>
+      <c r="BF52" s="12"/>
+      <c r="BG52" s="12"/>
+      <c r="BH52" s="12"/>
+      <c r="BI52" s="12"/>
+      <c r="BJ52" s="12"/>
+      <c r="BK52" s="12"/>
+      <c r="BL52" s="12"/>
+      <c r="BM52" s="12"/>
+      <c r="BN52" s="12"/>
+      <c r="BO52" s="12"/>
+      <c r="BP52" s="12"/>
+      <c r="BQ52" s="12"/>
+      <c r="BR52" s="12"/>
+      <c r="BS52" s="12"/>
+      <c r="BT52" s="12"/>
+      <c r="BU52" s="12"/>
+      <c r="BV52" s="12"/>
+      <c r="BW52" s="12"/>
+      <c r="BX52" s="12"/>
+      <c r="BY52" s="13"/>
+      <c r="CC52" s="37"/>
+    </row>
+    <row r="53" spans="7:81" ht="19.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G53" s="25"/>
-      <c r="AN53" s="28"/>
-    </row>
-    <row r="54" spans="7:40" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN53" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO53" s="15"/>
+      <c r="AP53" s="15"/>
+      <c r="AQ53" s="15"/>
+      <c r="AR53" s="15"/>
+      <c r="AS53" s="15"/>
+      <c r="AT53" s="15"/>
+      <c r="AU53" s="15"/>
+      <c r="AV53" s="15"/>
+      <c r="AW53" s="15"/>
+      <c r="AX53" s="15"/>
+      <c r="AY53" s="15"/>
+      <c r="AZ53" s="15"/>
+      <c r="BA53" s="15"/>
+      <c r="BB53" s="15"/>
+      <c r="BC53" s="15"/>
+      <c r="BD53" s="15"/>
+      <c r="BE53" s="15"/>
+      <c r="BF53" s="15"/>
+      <c r="BG53" s="15"/>
+      <c r="BH53" s="15"/>
+      <c r="BI53" s="15"/>
+      <c r="BJ53" s="15"/>
+      <c r="BK53" s="15"/>
+      <c r="BL53" s="15"/>
+      <c r="BM53" s="15"/>
+      <c r="BN53" s="15"/>
+      <c r="BO53" s="15"/>
+      <c r="BP53" s="15"/>
+      <c r="BQ53" s="15"/>
+      <c r="BR53" s="15"/>
+      <c r="BS53" s="15"/>
+      <c r="BT53" s="15"/>
+      <c r="BU53" s="15"/>
+      <c r="BV53" s="15"/>
+      <c r="BW53" s="15"/>
+      <c r="BX53" s="15"/>
+      <c r="BY53" s="16"/>
+      <c r="CC53" s="38"/>
+    </row>
+    <row r="54" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G54" s="25"/>
-      <c r="AN54" s="28"/>
-    </row>
-    <row r="55" spans="7:40" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="AN55" s="28"/>
-    </row>
-    <row r="56" spans="7:40" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="AN56" s="28"/>
-    </row>
-    <row r="57" spans="7:40" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="AN57" s="28"/>
-    </row>
-    <row r="58" spans="7:40" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="AN58" s="28"/>
-    </row>
-    <row r="59" spans="7:40" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="AN59" s="28"/>
-    </row>
-    <row r="60" spans="7:40" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="AN60" s="28"/>
+      <c r="AM54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN54" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO54" s="12"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12"/>
+      <c r="AS54" s="12"/>
+      <c r="AT54" s="12"/>
+      <c r="AU54" s="12"/>
+      <c r="AV54" s="12"/>
+      <c r="AW54" s="12"/>
+      <c r="AX54" s="12"/>
+      <c r="AY54" s="12"/>
+      <c r="AZ54" s="12"/>
+      <c r="BA54" s="12"/>
+      <c r="BB54" s="12"/>
+      <c r="BC54" s="12"/>
+      <c r="BD54" s="12"/>
+      <c r="BE54" s="12"/>
+      <c r="BF54" s="12"/>
+      <c r="BG54" s="12"/>
+      <c r="BH54" s="12"/>
+      <c r="BI54" s="12"/>
+      <c r="BJ54" s="12"/>
+      <c r="BK54" s="12"/>
+      <c r="BL54" s="12"/>
+      <c r="BM54" s="12"/>
+      <c r="BN54" s="12"/>
+      <c r="BO54" s="12"/>
+      <c r="BP54" s="12"/>
+      <c r="BQ54" s="12"/>
+      <c r="BR54" s="12"/>
+      <c r="BS54" s="12"/>
+      <c r="BT54" s="12"/>
+      <c r="BU54" s="12"/>
+      <c r="BV54" s="12"/>
+      <c r="BW54" s="12"/>
+      <c r="BX54" s="12"/>
+      <c r="BY54" s="13"/>
+    </row>
+    <row r="55" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN55" s="47"/>
+      <c r="AO55" s="15"/>
+      <c r="AP55" s="15"/>
+      <c r="AQ55" s="15"/>
+      <c r="AR55" s="15"/>
+      <c r="AS55" s="15"/>
+      <c r="AT55" s="15"/>
+      <c r="AU55" s="15"/>
+      <c r="AV55" s="15"/>
+      <c r="AW55" s="15"/>
+      <c r="AX55" s="15"/>
+      <c r="AY55" s="15"/>
+      <c r="AZ55" s="15"/>
+      <c r="BA55" s="15"/>
+      <c r="BB55" s="15"/>
+      <c r="BC55" s="15"/>
+      <c r="BD55" s="15"/>
+      <c r="BE55" s="15"/>
+      <c r="BF55" s="15"/>
+      <c r="BG55" s="15"/>
+      <c r="BH55" s="15"/>
+      <c r="BI55" s="15"/>
+      <c r="BJ55" s="15"/>
+      <c r="BK55" s="15"/>
+      <c r="BL55" s="15"/>
+      <c r="BM55" s="15"/>
+      <c r="BN55" s="15"/>
+      <c r="BO55" s="15"/>
+      <c r="BP55" s="15"/>
+      <c r="BQ55" s="15"/>
+      <c r="BR55" s="15"/>
+      <c r="BS55" s="15"/>
+      <c r="BT55" s="15"/>
+      <c r="BU55" s="15"/>
+      <c r="BV55" s="15"/>
+      <c r="BW55" s="15"/>
+      <c r="BX55" s="15"/>
+      <c r="BY55" s="16"/>
+    </row>
+    <row r="56" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN56" s="27"/>
+    </row>
+    <row r="57" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN57" s="27"/>
+    </row>
+    <row r="58" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN58" s="27"/>
+    </row>
+    <row r="59" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN59" s="27"/>
+    </row>
+    <row r="60" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN60" s="27"/>
+    </row>
+    <row r="61" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN61" s="27"/>
+    </row>
+    <row r="62" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN62" s="27"/>
+    </row>
+    <row r="63" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN63" s="27"/>
+    </row>
+    <row r="64" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN64" s="27"/>
+    </row>
+    <row r="65" spans="40:40" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN65" s="27"/>
+    </row>
+    <row r="66" spans="40:40" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN66" s="27"/>
+    </row>
+    <row r="67" spans="40:40" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN67" s="27"/>
+    </row>
+    <row r="68" spans="40:40" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN68" s="27"/>
+    </row>
+    <row r="69" spans="40:40" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN69" s="27"/>
+    </row>
+    <row r="70" spans="40:40" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN70" s="27"/>
+    </row>
+    <row r="71" spans="40:40" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN71" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3344,7 +4540,20 @@
     <mergeCell ref="BH8:BI9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="CC41:CC53 CA54">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="percentile" val="2"/>
+        <cfvo type="num" val="3"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/00-仕様書/機能仕様書.xlsx
+++ b/00-仕様書/機能仕様書.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>L</t>
     <phoneticPr fontId="1"/>
@@ -441,10 +441,6 @@
   </si>
   <si>
     <t>（Share機能等で）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑥</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -637,6 +633,27 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>databaseを更新できるよう(update, insert等）、kradfileを再作成できる</t>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>サイサクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1107,6 +1124,60 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1118,60 +1189,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1456,7 +1473,7 @@
   <dimension ref="F5:DH71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BN54" sqref="BN54"/>
+      <selection activeCell="CC50" sqref="CC50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1592,10 +1609,10 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="13"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="30" t="s">
+      <c r="AD8" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="AE8" s="31"/>
+      <c r="AE8" s="49"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
@@ -1626,10 +1643,10 @@
       <c r="BE8" s="12"/>
       <c r="BF8" s="13"/>
       <c r="BG8" s="6"/>
-      <c r="BH8" s="30" t="s">
+      <c r="BH8" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="BI8" s="31"/>
+      <c r="BI8" s="49"/>
       <c r="BJ8" s="7"/>
     </row>
     <row r="9" spans="7:62" x14ac:dyDescent="0.2">
@@ -1656,8 +1673,8 @@
       <c r="AA9" s="15"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="33"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="51"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
@@ -1686,8 +1703,8 @@
       <c r="BE9" s="15"/>
       <c r="BF9" s="16"/>
       <c r="BG9" s="6"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="33"/>
+      <c r="BH9" s="50"/>
+      <c r="BI9" s="51"/>
       <c r="BJ9" s="7"/>
     </row>
     <row r="10" spans="7:62" x14ac:dyDescent="0.2">
@@ -3360,7 +3377,7 @@
       <c r="AM39" s="6"/>
       <c r="AN39" s="6"/>
       <c r="CC39" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="6:112" ht="19.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -3401,7 +3418,7 @@
       <c r="AM40" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AN40" s="46" t="s">
+      <c r="AN40" s="42" t="s">
         <v>16</v>
       </c>
       <c r="AO40" s="12"/>
@@ -3441,42 +3458,42 @@
       <c r="BW40" s="12"/>
       <c r="BX40" s="12"/>
       <c r="BY40" s="13"/>
-      <c r="CC40" s="45" t="s">
+      <c r="CC40" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="CD40" s="44"/>
-      <c r="CE40" s="44"/>
-      <c r="CF40" s="44"/>
-      <c r="CG40" s="44" t="s">
+      <c r="CD40" s="40"/>
+      <c r="CE40" s="40"/>
+      <c r="CF40" s="40"/>
+      <c r="CG40" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="CH40" s="44"/>
-      <c r="CI40" s="44"/>
-      <c r="CJ40" s="44"/>
-      <c r="CK40" s="44"/>
-      <c r="CL40" s="44"/>
-      <c r="CM40" s="44"/>
-      <c r="CN40" s="44"/>
-      <c r="CO40" s="44"/>
-      <c r="CP40" s="44"/>
-      <c r="CQ40" s="44"/>
-      <c r="CR40" s="44"/>
-      <c r="CS40" s="44"/>
-      <c r="CT40" s="44"/>
-      <c r="CU40" s="44"/>
-      <c r="CV40" s="44"/>
-      <c r="CW40" s="44"/>
-      <c r="CX40" s="44"/>
-      <c r="CY40" s="44"/>
-      <c r="CZ40" s="44"/>
-      <c r="DA40" s="44"/>
-      <c r="DB40" s="44"/>
-      <c r="DC40" s="44"/>
-      <c r="DD40" s="44"/>
-      <c r="DE40" s="44"/>
-      <c r="DF40" s="44"/>
-      <c r="DG40" s="44"/>
-      <c r="DH40" s="43"/>
+      <c r="CH40" s="40"/>
+      <c r="CI40" s="40"/>
+      <c r="CJ40" s="40"/>
+      <c r="CK40" s="40"/>
+      <c r="CL40" s="40"/>
+      <c r="CM40" s="40"/>
+      <c r="CN40" s="40"/>
+      <c r="CO40" s="40"/>
+      <c r="CP40" s="40"/>
+      <c r="CQ40" s="40"/>
+      <c r="CR40" s="40"/>
+      <c r="CS40" s="40"/>
+      <c r="CT40" s="40"/>
+      <c r="CU40" s="40"/>
+      <c r="CV40" s="40"/>
+      <c r="CW40" s="40"/>
+      <c r="CX40" s="40"/>
+      <c r="CY40" s="40"/>
+      <c r="CZ40" s="40"/>
+      <c r="DA40" s="40"/>
+      <c r="DB40" s="40"/>
+      <c r="DC40" s="40"/>
+      <c r="DD40" s="40"/>
+      <c r="DE40" s="40"/>
+      <c r="DF40" s="40"/>
+      <c r="DG40" s="40"/>
+      <c r="DH40" s="39"/>
     </row>
     <row r="41" spans="6:112" ht="19.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G41" s="26" t="s">
@@ -3514,7 +3531,7 @@
       <c r="AK41" s="6"/>
       <c r="AL41" s="6"/>
       <c r="AM41" s="6"/>
-      <c r="AN41" s="47" t="s">
+      <c r="AN41" s="43" t="s">
         <v>13</v>
       </c>
       <c r="AO41" s="15"/>
@@ -3557,7 +3574,7 @@
       <c r="CB41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="CC41" s="37">
+      <c r="CC41" s="33">
         <v>1</v>
       </c>
       <c r="CD41" s="25" t="s">
@@ -3602,7 +3619,7 @@
       <c r="AM42" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AN42" s="48" t="s">
+      <c r="AN42" s="44" t="s">
         <v>17</v>
       </c>
       <c r="AO42" s="12"/>
@@ -3645,42 +3662,42 @@
       <c r="CB42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="CC42" s="36">
+      <c r="CC42" s="32">
         <v>3</v>
       </c>
-      <c r="CD42" s="39" t="s">
+      <c r="CD42" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="CE42" s="34"/>
-      <c r="CF42" s="34"/>
-      <c r="CG42" s="34"/>
-      <c r="CH42" s="34"/>
-      <c r="CI42" s="34"/>
-      <c r="CJ42" s="34"/>
-      <c r="CK42" s="34"/>
-      <c r="CL42" s="34"/>
-      <c r="CM42" s="34"/>
-      <c r="CN42" s="34"/>
-      <c r="CO42" s="34"/>
-      <c r="CP42" s="34"/>
-      <c r="CQ42" s="34"/>
-      <c r="CR42" s="34"/>
-      <c r="CS42" s="34"/>
-      <c r="CT42" s="34"/>
-      <c r="CU42" s="34"/>
-      <c r="CV42" s="34"/>
-      <c r="CW42" s="34"/>
-      <c r="CX42" s="34"/>
-      <c r="CY42" s="34"/>
-      <c r="CZ42" s="34"/>
-      <c r="DA42" s="34"/>
-      <c r="DB42" s="34"/>
-      <c r="DC42" s="34"/>
-      <c r="DD42" s="34"/>
-      <c r="DE42" s="34"/>
-      <c r="DF42" s="34"/>
-      <c r="DG42" s="34"/>
-      <c r="DH42" s="35"/>
+      <c r="CE42" s="30"/>
+      <c r="CF42" s="30"/>
+      <c r="CG42" s="30"/>
+      <c r="CH42" s="30"/>
+      <c r="CI42" s="30"/>
+      <c r="CJ42" s="30"/>
+      <c r="CK42" s="30"/>
+      <c r="CL42" s="30"/>
+      <c r="CM42" s="30"/>
+      <c r="CN42" s="30"/>
+      <c r="CO42" s="30"/>
+      <c r="CP42" s="30"/>
+      <c r="CQ42" s="30"/>
+      <c r="CR42" s="30"/>
+      <c r="CS42" s="30"/>
+      <c r="CT42" s="30"/>
+      <c r="CU42" s="30"/>
+      <c r="CV42" s="30"/>
+      <c r="CW42" s="30"/>
+      <c r="CX42" s="30"/>
+      <c r="CY42" s="30"/>
+      <c r="CZ42" s="30"/>
+      <c r="DA42" s="30"/>
+      <c r="DB42" s="30"/>
+      <c r="DC42" s="30"/>
+      <c r="DD42" s="30"/>
+      <c r="DE42" s="30"/>
+      <c r="DF42" s="30"/>
+      <c r="DG42" s="30"/>
+      <c r="DH42" s="31"/>
     </row>
     <row r="43" spans="6:112" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G43" s="26" t="s">
@@ -3718,7 +3735,7 @@
       <c r="AK43" s="6"/>
       <c r="AL43" s="6"/>
       <c r="AM43" s="6"/>
-      <c r="AN43" s="49" t="s">
+      <c r="AN43" s="45" t="s">
         <v>18</v>
       </c>
       <c r="AO43" s="6"/>
@@ -3761,7 +3778,7 @@
       <c r="CB43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="CC43" s="37">
+      <c r="CC43" s="33">
         <v>3</v>
       </c>
       <c r="CD43" s="27" t="s">
@@ -3804,7 +3821,7 @@
       <c r="AK44" s="6"/>
       <c r="AL44" s="6"/>
       <c r="AM44" s="6"/>
-      <c r="AN44" s="49" t="s">
+      <c r="AN44" s="45" t="s">
         <v>19</v>
       </c>
       <c r="AO44" s="6"/>
@@ -3844,7 +3861,7 @@
       <c r="BW44" s="6"/>
       <c r="BX44" s="6"/>
       <c r="BY44" s="18"/>
-      <c r="CC44" s="37"/>
+      <c r="CC44" s="33"/>
       <c r="CD44" s="27" t="s">
         <v>38</v>
       </c>
@@ -3885,7 +3902,7 @@
       <c r="AK45" s="6"/>
       <c r="AL45" s="6"/>
       <c r="AM45" s="6"/>
-      <c r="AN45" s="47" t="s">
+      <c r="AN45" s="43" t="s">
         <v>20</v>
       </c>
       <c r="AO45" s="15"/>
@@ -3928,10 +3945,10 @@
       <c r="CB45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="CC45" s="40">
+      <c r="CC45" s="36">
         <v>3</v>
       </c>
-      <c r="CD45" s="41" t="s">
+      <c r="CD45" s="37" t="s">
         <v>30</v>
       </c>
       <c r="CE45" s="3"/>
@@ -4001,8 +4018,8 @@
       <c r="AM46" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AN46" s="50" t="s">
-        <v>46</v>
+      <c r="AN46" s="46" t="s">
+        <v>45</v>
       </c>
       <c r="AO46" s="12"/>
       <c r="AP46" s="12"/>
@@ -4041,8 +4058,8 @@
       <c r="BW46" s="12"/>
       <c r="BX46" s="12"/>
       <c r="BY46" s="13"/>
-      <c r="CC46" s="38"/>
-      <c r="CD46" s="42" t="s">
+      <c r="CC46" s="34"/>
+      <c r="CD46" s="38" t="s">
         <v>31</v>
       </c>
       <c r="CE46" s="9"/>
@@ -4078,7 +4095,7 @@
     </row>
     <row r="47" spans="6:112" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G47" s="25"/>
-      <c r="AN47" s="51" t="s">
+      <c r="AN47" s="47" t="s">
         <v>21</v>
       </c>
       <c r="AO47" s="6"/>
@@ -4121,17 +4138,47 @@
       <c r="CB47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="CC47" s="37">
+      <c r="CC47" s="36">
         <v>1</v>
       </c>
-      <c r="CD47" s="27" t="s">
+      <c r="CD47" s="37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="6:112" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="CE47" s="3"/>
+      <c r="CF47" s="3"/>
+      <c r="CG47" s="3"/>
+      <c r="CH47" s="3"/>
+      <c r="CI47" s="3"/>
+      <c r="CJ47" s="3"/>
+      <c r="CK47" s="3"/>
+      <c r="CL47" s="3"/>
+      <c r="CM47" s="3"/>
+      <c r="CN47" s="3"/>
+      <c r="CO47" s="3"/>
+      <c r="CP47" s="3"/>
+      <c r="CQ47" s="3"/>
+      <c r="CR47" s="3"/>
+      <c r="CS47" s="3"/>
+      <c r="CT47" s="3"/>
+      <c r="CU47" s="3"/>
+      <c r="CV47" s="3"/>
+      <c r="CW47" s="3"/>
+      <c r="CX47" s="3"/>
+      <c r="CY47" s="3"/>
+      <c r="CZ47" s="3"/>
+      <c r="DA47" s="3"/>
+      <c r="DB47" s="3"/>
+      <c r="DC47" s="3"/>
+      <c r="DD47" s="3"/>
+      <c r="DE47" s="3"/>
+      <c r="DF47" s="3"/>
+      <c r="DG47" s="3"/>
+      <c r="DH47" s="4"/>
+    </row>
+    <row r="48" spans="6:112" ht="19.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G48" s="25"/>
-      <c r="AN48" s="49" t="s">
-        <v>44</v>
+      <c r="AN48" s="45" t="s">
+        <v>43</v>
       </c>
       <c r="AO48" s="6"/>
       <c r="AP48" s="6"/>
@@ -4170,13 +4217,43 @@
       <c r="BW48" s="6"/>
       <c r="BX48" s="6"/>
       <c r="BY48" s="18"/>
-      <c r="CC48" s="37"/>
-      <c r="CD48" s="27"/>
-    </row>
-    <row r="49" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="CC48" s="34"/>
+      <c r="CD48" s="38"/>
+      <c r="CE48" s="9"/>
+      <c r="CF48" s="9"/>
+      <c r="CG48" s="9"/>
+      <c r="CH48" s="9"/>
+      <c r="CI48" s="9"/>
+      <c r="CJ48" s="9"/>
+      <c r="CK48" s="9"/>
+      <c r="CL48" s="9"/>
+      <c r="CM48" s="9"/>
+      <c r="CN48" s="9"/>
+      <c r="CO48" s="9"/>
+      <c r="CP48" s="9"/>
+      <c r="CQ48" s="9"/>
+      <c r="CR48" s="9"/>
+      <c r="CS48" s="9"/>
+      <c r="CT48" s="9"/>
+      <c r="CU48" s="9"/>
+      <c r="CV48" s="9"/>
+      <c r="CW48" s="9"/>
+      <c r="CX48" s="9"/>
+      <c r="CY48" s="9"/>
+      <c r="CZ48" s="9"/>
+      <c r="DA48" s="9"/>
+      <c r="DB48" s="9"/>
+      <c r="DC48" s="9"/>
+      <c r="DD48" s="9"/>
+      <c r="DE48" s="9"/>
+      <c r="DF48" s="9"/>
+      <c r="DG48" s="9"/>
+      <c r="DH48" s="10"/>
+    </row>
+    <row r="49" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G49" s="25"/>
       <c r="AM49" s="6"/>
-      <c r="AN49" s="47" t="s">
+      <c r="AN49" s="43" t="s">
         <v>28</v>
       </c>
       <c r="AO49" s="15"/>
@@ -4216,15 +4293,23 @@
       <c r="BW49" s="15"/>
       <c r="BX49" s="15"/>
       <c r="BY49" s="16"/>
-      <c r="CC49" s="37"/>
-    </row>
-    <row r="50" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="CB49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="CC49" s="33">
+        <v>3</v>
+      </c>
+      <c r="CD49" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G50" s="25"/>
       <c r="AM50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AN50" s="48" t="s">
-        <v>43</v>
+      <c r="AN50" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="AO50" s="12"/>
       <c r="AP50" s="12"/>
@@ -4263,11 +4348,12 @@
       <c r="BW50" s="12"/>
       <c r="BX50" s="12"/>
       <c r="BY50" s="13"/>
-      <c r="CC50" s="37"/>
-    </row>
-    <row r="51" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="CC50" s="33"/>
+      <c r="CD50" s="27"/>
+    </row>
+    <row r="51" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G51" s="25"/>
-      <c r="AN51" s="47" t="s">
+      <c r="AN51" s="43" t="s">
         <v>27</v>
       </c>
       <c r="AO51" s="15"/>
@@ -4307,15 +4393,16 @@
       <c r="BW51" s="15"/>
       <c r="BX51" s="15"/>
       <c r="BY51" s="16"/>
-      <c r="CC51" s="37"/>
-    </row>
-    <row r="52" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="CC51" s="33"/>
+      <c r="CD51" s="27"/>
+    </row>
+    <row r="52" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G52" s="25"/>
       <c r="AM52" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AN52" s="48" t="s">
-        <v>40</v>
+      <c r="AN52" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="AO52" s="12"/>
       <c r="AP52" s="12"/>
@@ -4354,12 +4441,13 @@
       <c r="BW52" s="12"/>
       <c r="BX52" s="12"/>
       <c r="BY52" s="13"/>
-      <c r="CC52" s="37"/>
-    </row>
-    <row r="53" spans="7:81" ht="19.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="CC52" s="33"/>
+      <c r="CD52" s="27"/>
+    </row>
+    <row r="53" spans="7:82" ht="19.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G53" s="25"/>
-      <c r="AN53" s="47" t="s">
-        <v>41</v>
+      <c r="AN53" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="AO53" s="15"/>
       <c r="AP53" s="15"/>
@@ -4398,15 +4486,16 @@
       <c r="BW53" s="15"/>
       <c r="BX53" s="15"/>
       <c r="BY53" s="16"/>
-      <c r="CC53" s="38"/>
-    </row>
-    <row r="54" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="CC53" s="34"/>
+      <c r="CD53" s="27"/>
+    </row>
+    <row r="54" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G54" s="25"/>
       <c r="AM54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN54" s="48" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AN54" s="44" t="s">
+        <v>44</v>
       </c>
       <c r="AO54" s="12"/>
       <c r="AP54" s="12"/>
@@ -4446,8 +4535,8 @@
       <c r="BX54" s="12"/>
       <c r="BY54" s="13"/>
     </row>
-    <row r="55" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="AN55" s="47"/>
+    <row r="55" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN55" s="43"/>
       <c r="AO55" s="15"/>
       <c r="AP55" s="15"/>
       <c r="AQ55" s="15"/>
@@ -4486,31 +4575,31 @@
       <c r="BX55" s="15"/>
       <c r="BY55" s="16"/>
     </row>
-    <row r="56" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="56" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="AN56" s="27"/>
     </row>
-    <row r="57" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="57" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="AN57" s="27"/>
     </row>
-    <row r="58" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="58" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="AN58" s="27"/>
     </row>
-    <row r="59" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="59" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="AN59" s="27"/>
     </row>
-    <row r="60" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="60" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="AN60" s="27"/>
     </row>
-    <row r="61" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="61" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="AN61" s="27"/>
     </row>
-    <row r="62" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="62" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="AN62" s="27"/>
     </row>
-    <row r="63" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="63" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="AN63" s="27"/>
     </row>
-    <row r="64" spans="7:81" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="64" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="AN64" s="27"/>
     </row>
     <row r="65" spans="40:40" ht="19.2" x14ac:dyDescent="0.2">

--- a/00-仕様書/機能仕様書.xlsx
+++ b/00-仕様書/機能仕様書.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>L</t>
     <phoneticPr fontId="1"/>
@@ -654,6 +654,39 @@
     </rPh>
     <rPh sb="43" eb="46">
       <t>サイサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/KentVu/kanji-decomposition/issues?state=open</t>
+  </si>
+  <si>
+    <t>これからの要望機能などはGitHubページで登録、閲覧機能がありますので、このページをご参照ください。</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1473,7 +1506,7 @@
   <dimension ref="F5:DH71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CC50" sqref="CC50"/>
+      <selection activeCell="CD57" sqref="CD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4574,12 +4607,24 @@
       <c r="BW55" s="15"/>
       <c r="BX55" s="15"/>
       <c r="BY55" s="16"/>
+      <c r="CC55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="CD55" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="56" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="AN56" s="27"/>
+      <c r="CD56" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="57" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="AN57" s="27"/>
+      <c r="CD57" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="58" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="AN58" s="27"/>

--- a/00-仕様書/機能仕様書.xlsx
+++ b/00-仕様書/機能仕様書.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>L</t>
     <phoneticPr fontId="1"/>
@@ -658,37 +658,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>*</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Note:</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://github.com/KentVu/kanji-decomposition/issues?state=open</t>
-  </si>
-  <si>
-    <t>これからの要望機能などはGitHubページで登録、閲覧機能がありますので、このページをご参照ください。</t>
-    <rPh sb="5" eb="7">
-      <t>ヨウボウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
+    <t>これから期待するものはGitHubで表示、登録ができるので、ご利用ください</t>
+    <rPh sb="4" eb="6">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="25" eb="27">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <rPh sb="31" eb="33">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/KentVu/kanji-decomposition/issues?state=closed</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:DH71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="CD57" sqref="CD57"/>
     </sheetView>
   </sheetViews>
@@ -4607,23 +4593,17 @@
       <c r="BW55" s="15"/>
       <c r="BX55" s="15"/>
       <c r="BY55" s="16"/>
-      <c r="CC55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CD55" s="1" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="56" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="AN56" s="27"/>
       <c r="CD56" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="AN57" s="27"/>
       <c r="CD57" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">

--- a/00-仕様書/機能仕様書.xlsx
+++ b/00-仕様書/機能仕様書.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LSI\Documents\GitHub\kanji-decomposition\00-仕様書\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16296" windowHeight="5280"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +24,7 @@
     <author>LSI</author>
   </authors>
   <commentList>
-    <comment ref="CC40" authorId="0" shapeId="0">
+    <comment ref="CC40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -674,14 +669,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://github.com/KentVu/kanji-decomposition/issues?state=closed</t>
+    <t>https://github.com/KentVu/kanji-decomposition/issues</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,6 +769,14 @@
       <color theme="0" tint="-0.249977111117893"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1047,12 +1051,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1197,6 +1204,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1210,7 +1220,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1269,7 +1280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1304,7 +1315,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1481,7 +1492,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1492,7 +1503,7 @@
   <dimension ref="F5:DH71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CD57" sqref="CD57"/>
+      <selection activeCell="CJ52" sqref="CJ52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1628,10 +1639,10 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="13"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="48" t="s">
+      <c r="AD8" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="AE8" s="49"/>
+      <c r="AE8" s="50"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
@@ -1662,10 +1673,10 @@
       <c r="BE8" s="12"/>
       <c r="BF8" s="13"/>
       <c r="BG8" s="6"/>
-      <c r="BH8" s="48" t="s">
+      <c r="BH8" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="BI8" s="49"/>
+      <c r="BI8" s="50"/>
       <c r="BJ8" s="7"/>
     </row>
     <row r="9" spans="7:62" x14ac:dyDescent="0.2">
@@ -1692,8 +1703,8 @@
       <c r="AA9" s="15"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="52"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
@@ -1722,8 +1733,8 @@
       <c r="BE9" s="15"/>
       <c r="BF9" s="16"/>
       <c r="BG9" s="6"/>
-      <c r="BH9" s="50"/>
-      <c r="BI9" s="51"/>
+      <c r="BH9" s="51"/>
+      <c r="BI9" s="52"/>
       <c r="BJ9" s="7"/>
     </row>
     <row r="10" spans="7:62" x14ac:dyDescent="0.2">
@@ -4602,7 +4613,7 @@
     </row>
     <row r="57" spans="7:82" ht="19.2" x14ac:dyDescent="0.2">
       <c r="AN57" s="27"/>
-      <c r="CD57" s="1" t="s">
+      <c r="CD57" s="48" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4666,8 +4677,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="CD57" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>